--- a/Temp/SJ/졸작 계획서_신성재.xlsx
+++ b/Temp/SJ/졸작 계획서_신성재.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0097911D-ADB9-49BC-A84A-6806E4BA4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341525D5-5AEA-436D-9977-8D42B0161BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>행사 참가</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>본가 가족 여행</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -83,7 +79,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>본가, 치과방문</t>
+    <t>오프라인 행사 참가</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이렉트 강의 찾아보기</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 교수님과의 첫 대면 만남</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>본가와서 일 도와드리기 및 치과방문</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원들과 온라인 및 오프라인 회의 및 강의 OT 참가</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임소프트웨어공학에서 소프트웨어 공부</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +115,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -267,8 +283,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +516,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +774,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -770,6 +811,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,17 +832,23 @@
     <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1144,99 +1203,99 @@
   </sheetPr>
   <dimension ref="B1:AD28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:AD9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="8.4375" style="3" customWidth="1"/>
-    <col min="18" max="30" width="8.4375" style="1" customWidth="1"/>
+    <col min="3" max="17" width="26.25" style="3" customWidth="1"/>
+    <col min="18" max="30" width="26.25" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:30" ht="30" customHeight="1">
+    <row r="4" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" s="16" t="str">
+      <c r="C4" s="12" t="str">
         <f ca="1">TEXT(TODAY(), "m월")</f>
         <v>9월</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-    </row>
-    <row r="5" spans="2:30" ht="30" customHeight="1">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+    </row>
+    <row r="5" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
@@ -1351,15 +1410,17 @@
         <v>28일</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="30" customHeight="1">
+    <row r="6" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1384,15 +1445,21 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="2:30" ht="30" customHeight="1">
+    <row r="7" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1417,7 +1484,7 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="2:30" ht="30" customHeight="1">
+    <row r="8" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1426,19 +1493,19 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="H8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="13"/>
+      <c r="O8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="17"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1454,42 +1521,42 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="2:30" ht="30" customHeight="1">
+    <row r="9" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="2:30" ht="30" customHeight="1">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+    </row>
+    <row r="10" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="str">
         <f>COLUMN(A1)+28 &amp; "일"</f>
@@ -1604,7 +1671,7 @@
         <v>26일</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="30" customHeight="1">
+    <row r="11" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1704,7 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
     </row>
-    <row r="12" spans="2:30" ht="30" customHeight="1">
+    <row r="12" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1670,7 +1737,7 @@
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
     </row>
-    <row r="13" spans="2:30" ht="30" customHeight="1">
+    <row r="13" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1678,15 +1745,15 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
+      <c r="G13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1702,45 +1769,47 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-    </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1">
+      <c r="AC13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" s="17"/>
+    </row>
+    <row r="14" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B14" s="5"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-    </row>
-    <row r="15" spans="2:30" ht="30" customHeight="1">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+    </row>
+    <row r="15" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="8" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
@@ -1855,7 +1924,7 @@
         <v>23일</v>
       </c>
     </row>
-    <row r="16" spans="2:30" ht="30" customHeight="1">
+    <row r="16" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1888,7 +1957,7 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
     </row>
-    <row r="17" spans="2:30" ht="30" customHeight="1">
+    <row r="17" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1990,7 @@
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
     </row>
-    <row r="18" spans="2:30" ht="30" customHeight="1">
+    <row r="18" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1944,10 +2013,10 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="13"/>
+      <c r="V18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="17"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1956,42 +2025,42 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
     </row>
-    <row r="19" spans="2:30" ht="30" customHeight="1">
+    <row r="19" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B19" s="5"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+    </row>
+    <row r="20" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="8" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
@@ -2106,7 +2175,7 @@
         <v>21일</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="30" customHeight="1">
+    <row r="21" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2208,7 @@
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
     </row>
-    <row r="22" spans="2:30" ht="30" customHeight="1">
+    <row r="22" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2241,7 @@
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
     </row>
-    <row r="23" spans="2:30" ht="30" customHeight="1">
+    <row r="23" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
@@ -2205,20 +2274,20 @@
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
     </row>
-    <row r="24" spans="2:30" ht="30" customHeight="1">
+    <row r="24" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B24" s="5"/>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -2238,7 +2307,7 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="2:30" ht="30" customHeight="1">
+    <row r="25" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="8" t="str">
         <f>COLUMN(V1) &amp; "일"</f>
@@ -2299,7 +2368,7 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
     </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1">
+    <row r="26" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
@@ -2332,7 +2401,7 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
     </row>
-    <row r="27" spans="2:30" ht="30" customHeight="1">
+    <row r="27" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2434,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
     </row>
-    <row r="28" spans="2:30" ht="30" customHeight="1">
+    <row r="28" spans="2:30" ht="71.349999999999994" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2468,15 @@
       <c r="AD28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:AD14"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J19:AD19"/>
+    <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="C4:AD4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:AD9"/>
@@ -2407,13 +2484,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:AD14"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J19:AD19"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C25:L25">

--- a/Temp/SJ/졸작 계획서_신성재.xlsx
+++ b/Temp/SJ/졸작 계획서_신성재.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341525D5-5AEA-436D-9977-8D42B0161BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F88E0C-1572-40A4-85A8-6166DFD1B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>주 업무</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 업무</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -102,6 +98,17 @@
     <t>게임소프트웨어공학에서 소프트웨어 공부</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>다이렉트 외부 강의 시청 및 C++ 언리얼 외부 강의 시청</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>부 업무</t>
+  </si>
+  <si>
+    <t>부 업무</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +298,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -790,9 +803,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="25" fillId="3" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,33 +821,36 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,8 +860,17 @@
     <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1203,8 +1225,8 @@
   </sheetPr>
   <dimension ref="B1:AD28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1217,1258 +1239,1269 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="20">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B4" s="5"/>
-      <c r="C4" s="12" t="str">
+      <c r="B4" s="27"/>
+      <c r="C4" s="18" t="str">
         <f ca="1">TEXT(TODAY(), "m월")</f>
         <v>9월</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
     </row>
     <row r="5" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="str">
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:AB5" si="0">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>3일</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>4일</v>
       </c>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>5일</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="H5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>6일</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>7일</v>
       </c>
-      <c r="J5" s="6" t="str">
+      <c r="J5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>8일</v>
       </c>
-      <c r="K5" s="6" t="str">
+      <c r="K5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>9일</v>
       </c>
-      <c r="L5" s="6" t="str">
+      <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>10일</v>
       </c>
-      <c r="M5" s="6" t="str">
+      <c r="M5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>11일</v>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="N5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12일</v>
       </c>
-      <c r="O5" s="6" t="str">
+      <c r="O5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>13일</v>
       </c>
-      <c r="P5" s="6" t="str">
+      <c r="P5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>14일</v>
       </c>
-      <c r="Q5" s="6" t="str">
+      <c r="Q5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>15일</v>
       </c>
-      <c r="R5" s="6" t="str">
+      <c r="R5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>16일</v>
       </c>
-      <c r="S5" s="6" t="str">
+      <c r="S5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17일</v>
       </c>
-      <c r="T5" s="6" t="str">
+      <c r="T5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>18일</v>
       </c>
-      <c r="U5" s="6" t="str">
+      <c r="U5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>19일</v>
       </c>
-      <c r="V5" s="6" t="str">
+      <c r="V5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>20일</v>
       </c>
-      <c r="W5" s="6" t="str">
+      <c r="W5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>21일</v>
       </c>
-      <c r="X5" s="6" t="str">
+      <c r="X5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>22일</v>
       </c>
-      <c r="Y5" s="6" t="str">
+      <c r="Y5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>23일</v>
       </c>
-      <c r="Z5" s="6" t="str">
+      <c r="Z5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>24일</v>
       </c>
-      <c r="AA5" s="6" t="str">
+      <c r="AA5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>25일</v>
       </c>
-      <c r="AB5" s="6" t="str">
+      <c r="AB5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>26일</v>
       </c>
-      <c r="AC5" s="6" t="str">
+      <c r="AC5" s="5" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
         <v>27일</v>
       </c>
-      <c r="AD5" s="6" t="str">
+      <c r="AD5" s="5" t="str">
         <f>COLUMN(AB1) &amp; "일"</f>
         <v>28일</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="2:30" ht="71.349999999999994" customHeight="1">
+      <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="20" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
     </row>
     <row r="9" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
     </row>
     <row r="10" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="str">
+      <c r="B10" s="27"/>
+      <c r="C10" s="7" t="str">
         <f>COLUMN(A1)+28 &amp; "일"</f>
         <v>29일</v>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="7" t="str">
         <f>COLUMN(B1)+28 &amp; "일"</f>
         <v>30일</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="7" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" ref="F10:AD10" si="1">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>3일</v>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>4일</v>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>5일</v>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>6일</v>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>7일</v>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>8일</v>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="M10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>9일</v>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>10일</v>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11일</v>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="P10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>12일</v>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="Q10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>13일</v>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="R10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>14일</v>
       </c>
-      <c r="S10" s="8" t="str">
+      <c r="S10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>15일</v>
       </c>
-      <c r="T10" s="8" t="str">
+      <c r="T10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>16일</v>
       </c>
-      <c r="U10" s="8" t="str">
+      <c r="U10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>17일</v>
       </c>
-      <c r="V10" s="8" t="str">
+      <c r="V10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>18일</v>
       </c>
-      <c r="W10" s="8" t="str">
+      <c r="W10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>19일</v>
       </c>
-      <c r="X10" s="8" t="str">
+      <c r="X10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>20일</v>
       </c>
-      <c r="Y10" s="8" t="str">
+      <c r="Y10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>21일</v>
       </c>
-      <c r="Z10" s="8" t="str">
+      <c r="Z10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>22일</v>
       </c>
-      <c r="AA10" s="8" t="str">
+      <c r="AA10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>23일</v>
       </c>
-      <c r="AB10" s="8" t="str">
+      <c r="AB10" s="7" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
         <v>24일</v>
       </c>
-      <c r="AC10" s="8" t="str">
+      <c r="AC10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>25일</v>
       </c>
-      <c r="AD10" s="8" t="str">
+      <c r="AD10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>26일</v>
       </c>
     </row>
     <row r="11" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="2:30" ht="71.349999999999994" customHeight="1">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-    </row>
-    <row r="13" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="16"/>
     </row>
     <row r="14" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
     </row>
     <row r="15" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B15" s="5"/>
-      <c r="C15" s="8" t="str">
+      <c r="B15" s="27"/>
+      <c r="C15" s="7" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
         <v>27일</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="7" t="str">
         <f t="shared" ref="D15:G15" si="2">COLUMN(AB1) &amp; "일"</f>
         <v>28일</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29일</v>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>30일</v>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="7" t="str">
         <f t="shared" si="2"/>
         <v>31일</v>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="7" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="7" t="str">
         <f t="shared" ref="I15:AD15" si="3">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>3일</v>
       </c>
-      <c r="K15" s="8" t="str">
+      <c r="K15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>4일</v>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>5일</v>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="M15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>6일</v>
       </c>
-      <c r="N15" s="8" t="str">
+      <c r="N15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>7일</v>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="O15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>8일</v>
       </c>
-      <c r="P15" s="8" t="str">
+      <c r="P15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>9일</v>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="Q15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>10일</v>
       </c>
-      <c r="R15" s="8" t="str">
+      <c r="R15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>11일</v>
       </c>
-      <c r="S15" s="8" t="str">
+      <c r="S15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>12일</v>
       </c>
-      <c r="T15" s="8" t="str">
+      <c r="T15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>13일</v>
       </c>
-      <c r="U15" s="8" t="str">
+      <c r="U15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>14일</v>
       </c>
-      <c r="V15" s="8" t="str">
+      <c r="V15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>15일</v>
       </c>
-      <c r="W15" s="8" t="str">
+      <c r="W15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>16일</v>
       </c>
-      <c r="X15" s="8" t="str">
+      <c r="X15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>17일</v>
       </c>
-      <c r="Y15" s="8" t="str">
+      <c r="Y15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>18일</v>
       </c>
-      <c r="Z15" s="8" t="str">
+      <c r="Z15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>19일</v>
       </c>
-      <c r="AA15" s="8" t="str">
+      <c r="AA15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>20일</v>
       </c>
-      <c r="AB15" s="8" t="str">
+      <c r="AB15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>21일</v>
       </c>
-      <c r="AC15" s="8" t="str">
+      <c r="AC15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>22일</v>
       </c>
-      <c r="AD15" s="8" t="str">
+      <c r="AD15" s="7" t="str">
         <f t="shared" si="3"/>
         <v>23일</v>
       </c>
     </row>
     <row r="16" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+    </row>
+    <row r="18" spans="2:30" ht="71.349999999999994" customHeight="1">
+      <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-    </row>
-    <row r="18" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="16"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="12" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
     </row>
     <row r="20" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="8" t="str">
+      <c r="B20" s="27"/>
+      <c r="C20" s="7" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
         <v>24일</v>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="7" t="str">
         <f t="shared" ref="D20:I20" si="4">COLUMN(Y1) &amp; "일"</f>
         <v>25일</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>26일</v>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>27일</v>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>28일</v>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>29일</v>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="7" t="str">
         <f t="shared" si="4"/>
         <v>30일</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="9" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
       </c>
-      <c r="K20" s="10" t="str">
+      <c r="K20" s="9" t="str">
         <f t="shared" ref="K20:AD20" si="5">COLUMN(B1) &amp; "일"</f>
         <v>2일</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>3일</v>
       </c>
-      <c r="M20" s="10" t="str">
+      <c r="M20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>4일</v>
       </c>
-      <c r="N20" s="10" t="str">
+      <c r="N20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>5일</v>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>6일</v>
       </c>
-      <c r="P20" s="10" t="str">
+      <c r="P20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>7일</v>
       </c>
-      <c r="Q20" s="10" t="str">
+      <c r="Q20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>8일</v>
       </c>
-      <c r="R20" s="10" t="str">
+      <c r="R20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>9일</v>
       </c>
-      <c r="S20" s="10" t="str">
+      <c r="S20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>10일</v>
       </c>
-      <c r="T20" s="10" t="str">
+      <c r="T20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>11일</v>
       </c>
-      <c r="U20" s="10" t="str">
+      <c r="U20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>12일</v>
       </c>
-      <c r="V20" s="10" t="str">
+      <c r="V20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>13일</v>
       </c>
-      <c r="W20" s="10" t="str">
+      <c r="W20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>14일</v>
       </c>
-      <c r="X20" s="10" t="str">
+      <c r="X20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>15일</v>
       </c>
-      <c r="Y20" s="10" t="str">
+      <c r="Y20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>16일</v>
       </c>
-      <c r="Z20" s="10" t="str">
+      <c r="Z20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>17일</v>
       </c>
-      <c r="AA20" s="10" t="str">
+      <c r="AA20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>18일</v>
       </c>
-      <c r="AB20" s="10" t="str">
+      <c r="AB20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>19일</v>
       </c>
-      <c r="AC20" s="10" t="str">
+      <c r="AC20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>20일</v>
       </c>
-      <c r="AD20" s="10" t="str">
+      <c r="AD20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>21일</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+    </row>
+    <row r="23" spans="2:30" ht="71.349999999999994" customHeight="1">
+      <c r="B23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-    </row>
-    <row r="23" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="8" t="str">
+      <c r="B25" s="27"/>
+      <c r="C25" s="7" t="str">
         <f>COLUMN(V1) &amp; "일"</f>
         <v>22일</v>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="7" t="str">
         <f t="shared" ref="D25:L25" si="6">COLUMN(W1) &amp; "일"</f>
         <v>23일</v>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>24일</v>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>25일</v>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>26일</v>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>27일</v>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>28일</v>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>29일</v>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>30일</v>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="7" t="str">
         <f t="shared" si="6"/>
         <v>31일</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
     </row>
     <row r="26" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
     </row>
     <row r="27" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+    </row>
+    <row r="28" spans="2:30" ht="71.349999999999994" customHeight="1">
+      <c r="B28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-    </row>
-    <row r="28" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="C4:AD4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:AD9"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:N6"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="C24:L24"/>
@@ -2477,14 +2510,6 @@
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="J19:AD19"/>
     <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="C4:AD4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:AD9"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C25:L25">

--- a/Temp/SJ/졸작 계획서_신성재.xlsx
+++ b/Temp/SJ/졸작 계획서_신성재.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F88E0C-1572-40A4-85A8-6166DFD1B0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C632FF-3B4E-4F40-8EC5-09322A3C907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -109,6 +109,14 @@
     <t>부 업무</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>시험공부</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 언리얼 외부 강의 시청,  프로토타입 제작</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +306,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +555,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -830,6 +844,18 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,9 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1225,8 +1248,8 @@
   </sheetPr>
   <dimension ref="B1:AD28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1239,86 +1262,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="18" t="str">
+      <c r="B4" s="14"/>
+      <c r="C4" s="22" t="str">
         <f ca="1">TEXT(TODAY(), "m월")</f>
         <v>9월</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
     </row>
     <row r="5" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B5" s="27"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
         <v>1일</v>
@@ -1433,44 +1456,46 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6"/>
@@ -1509,7 +1534,7 @@
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
@@ -1517,19 +1542,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="16"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1546,42 +1571,42 @@
       <c r="AD8" s="6"/>
     </row>
     <row r="9" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
     </row>
     <row r="10" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B10" s="27"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="str">
         <f>COLUMN(A1)+28 &amp; "일"</f>
         <v>29일</v>
@@ -1696,13 +1721,15 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1729,55 +1756,57 @@
       <c r="AD11" s="6"/>
     </row>
     <row r="12" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="G12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="17"/>
     </row>
     <row r="13" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1793,48 +1822,48 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="14" t="s">
+      <c r="AC13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
     </row>
     <row r="15" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B15" s="27"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
         <v>27일</v>
@@ -1949,7 +1978,7 @@
       </c>
     </row>
     <row r="16" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="6"/>
@@ -1982,7 +2011,7 @@
       <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="6"/>
@@ -2015,7 +2044,7 @@
       <c r="AD17" s="6"/>
     </row>
     <row r="18" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="8"/>
@@ -2037,10 +2066,10 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="16"/>
+      <c r="W18" s="20"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -2050,42 +2079,42 @@
       <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
     </row>
     <row r="20" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B20" s="27"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="7" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
         <v>24일</v>
@@ -2200,7 +2229,7 @@
       </c>
     </row>
     <row r="21" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="6"/>
@@ -2233,7 +2262,7 @@
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="6"/>
@@ -2266,7 +2295,7 @@
       <c r="AD22" s="6"/>
     </row>
     <row r="23" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="8"/>
@@ -2299,19 +2328,19 @@
       <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2332,7 +2361,7 @@
       <c r="AD24" s="10"/>
     </row>
     <row r="25" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B25" s="27"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="7" t="str">
         <f>COLUMN(V1) &amp; "일"</f>
         <v>22일</v>
@@ -2393,7 +2422,7 @@
       <c r="AD25" s="10"/>
     </row>
     <row r="26" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="6"/>
@@ -2426,7 +2455,7 @@
       <c r="AD26" s="10"/>
     </row>
     <row r="27" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="6"/>
@@ -2459,7 +2488,7 @@
       <c r="AD27" s="10"/>
     </row>
     <row r="28" spans="2:30" ht="71.349999999999994" customHeight="1">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="8"/>
@@ -2492,7 +2521,8 @@
       <c r="AD28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C4:AD4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:AD9"/>
@@ -2502,6 +2532,8 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:AD6"/>
+    <mergeCell ref="G12:AD12"/>
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="C24:L24"/>

--- a/Temp/SJ/졸작 계획서_신성재.xlsx
+++ b/Temp/SJ/졸작 계획서_신성재.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C632FF-3B4E-4F40-8EC5-09322A3C907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A970A8FD-1A33-44D3-BFF9-5FB3E9AC0853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -115,6 +115,44 @@
   </si>
   <si>
     <t>C++ 언리얼 외부 강의 시청,  프로토타입 제작</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의 배운 걸 바탕으로 한 C++ 간단 게임 개발</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 프로토타입 제작</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 맵 제작</t>
+  </si>
+  <si>
+    <t>졸업 작품 준비</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입을 서버에 연동</t>
+  </si>
+  <si>
+    <t>프로토타입을 서버에 연동</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 세부설정</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 제작 피드백</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 제작 및 피드백</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 언리얼 외부 강의 시청,  프로토타입 맵 제작</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +344,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +602,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -732,6 +794,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -801,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -847,6 +918,54 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,19 +975,13 @@
     <xf numFmtId="0" fontId="23" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="40" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -877,6 +990,12 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,13 +1005,13 @@
     <xf numFmtId="0" fontId="23" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,101 +1365,101 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD28"/>
+  <dimension ref="B1:AG29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+      <selection activeCell="B1" sqref="B1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="26.25" style="3" customWidth="1"/>
-    <col min="18" max="30" width="26.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="4" customWidth="1"/>
+    <col min="3" max="17" width="16.75" style="3" customWidth="1"/>
+    <col min="18" max="30" width="16.75" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
     </row>
     <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="38">
         <f>DATEVALUE("2025/09/01")</f>
         <v>45901</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="4" spans="2:30" ht="44.35" customHeight="1">
       <c r="B4" s="14"/>
-      <c r="C4" s="22" t="str">
+      <c r="C4" s="35" t="str">
         <f ca="1">TEXT(TODAY(), "m월")</f>
         <v>9월</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="5" spans="2:30" ht="44.35" customHeight="1">
       <c r="B5" s="14"/>
       <c r="C5" s="5" t="str">
         <f>COLUMN(A1) &amp; "일"</f>
@@ -1455,46 +1574,46 @@
         <v>28일</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="6" spans="2:30" ht="44.35" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="28" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="30"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="34"/>
     </row>
-    <row r="7" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="7" spans="2:30" ht="44.35" customHeight="1">
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
@@ -1514,26 +1633,30 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="M7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="45"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
+      <c r="Q7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="30"/>
     </row>
-    <row r="8" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="8" spans="2:30" ht="44.35" customHeight="1">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -1542,19 +1665,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="20"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1570,42 +1693,42 @@
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
     </row>
-    <row r="9" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="9" spans="2:30" ht="44.35" customHeight="1">
       <c r="B9" s="14"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
     </row>
-    <row r="10" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="10" spans="2:30" ht="44.35" customHeight="1">
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="str">
         <f>COLUMN(A1)+28 &amp; "일"</f>
@@ -1720,77 +1843,81 @@
         <v>26일</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="11" spans="2:30" ht="44.35" customHeight="1">
       <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="33"/>
     </row>
-    <row r="12" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="12" spans="2:30" ht="44.35" customHeight="1">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="17"/>
+      <c r="C12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="43"/>
     </row>
-    <row r="13" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="13" spans="2:30" ht="44.35" customHeight="1">
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1798,15 +1925,15 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="40"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1822,47 +1949,47 @@
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="18" t="s">
+      <c r="AC13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AD13" s="20"/>
+      <c r="AD13" s="40"/>
     </row>
-    <row r="14" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="14" spans="2:30" ht="44.35" customHeight="1">
       <c r="B14" s="14"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
     </row>
-    <row r="15" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="15" spans="2:30" ht="44.35" customHeight="1">
       <c r="B15" s="14"/>
       <c r="C15" s="7" t="str">
         <f>COLUMN(AA1) &amp; "일"</f>
@@ -1977,73 +2104,85 @@
         <v>23일</v>
       </c>
     </row>
-    <row r="16" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="16" spans="2:30" ht="44.35" customHeight="1">
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="C16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="X16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26"/>
     </row>
-    <row r="17" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="17" spans="2:33" ht="44.35" customHeight="1">
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="C17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="X17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="22"/>
     </row>
-    <row r="18" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="18" spans="2:33" ht="44.35" customHeight="1">
       <c r="B18" s="14" t="s">
         <v>7</v>
       </c>
@@ -2066,10 +2205,10 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="18" t="s">
+      <c r="V18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W18" s="20"/>
+      <c r="W18" s="40"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -2078,42 +2217,42 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="19" spans="2:33" ht="44.35" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
     </row>
-    <row r="20" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="20" spans="2:33" ht="44.35" customHeight="1">
       <c r="B20" s="14"/>
       <c r="C20" s="7" t="str">
         <f>COLUMN(X1) &amp; "일"</f>
@@ -2228,73 +2367,84 @@
         <v>21일</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="21" spans="2:33" ht="44.35" customHeight="1">
       <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
+      <c r="C21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
     </row>
-    <row r="22" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="22" spans="2:33" ht="44.35" customHeight="1">
       <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
+      <c r="C22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="19"/>
     </row>
-    <row r="23" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="23" spans="2:33" ht="44.35" customHeight="1">
       <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
@@ -2327,20 +2477,20 @@
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="24" spans="2:33" ht="44.35" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2360,7 +2510,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="25" spans="2:33" ht="44.35" customHeight="1">
       <c r="B25" s="14"/>
       <c r="C25" s="7" t="str">
         <f>COLUMN(V1) &amp; "일"</f>
@@ -2421,20 +2571,22 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="26" spans="2:33" ht="44.35" customHeight="1">
       <c r="B26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="C26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2454,20 +2606,22 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="27" spans="2:33" ht="44.35" customHeight="1">
       <c r="B27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="C27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -2487,7 +2641,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="2:30" ht="71.349999999999994" customHeight="1">
+    <row r="28" spans="2:33" ht="44.35" customHeight="1">
       <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
@@ -2520,20 +2674,9 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
     </row>
+    <row r="29" spans="2:33" ht="44.35" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C4:AD4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:AD9"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:AD6"/>
-    <mergeCell ref="G12:AD12"/>
+  <mergeCells count="36">
     <mergeCell ref="G13:M13"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="C24:L24"/>
@@ -2542,6 +2685,34 @@
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="J19:AD19"/>
     <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:U17"/>
+    <mergeCell ref="J21:AD21"/>
+    <mergeCell ref="J22:AD22"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:AD6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="Q7:AD7"/>
+    <mergeCell ref="G11:AD11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C4:AD4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:AD9"/>
+    <mergeCell ref="G12:AD12"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C25:L25">
